--- a/Zusätzliches/Diagramme/Gantt Diagramm.xlsx
+++ b/Zusätzliches/Diagramme/Gantt Diagramm.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcel\Desktop\Schule\Software\SnakeProjekt\Diagramme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcel\Desktop\Schule\Software\ttth\Zusätzliches\Diagramme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BC19DB-C53E-4DE9-AD15-81ABF122837B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D519FEE5-4AD0-42B3-A807-FDEAF52B8D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F50B8E01-466F-450A-9E3D-73D80AFD844B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Phase</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Marlene</t>
   </si>
 </sst>
 </file>
@@ -518,10 +521,8 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -839,7 +840,7 @@
   <dimension ref="A1:CI13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AY24" sqref="AY24"/>
+      <selection activeCell="AN23" sqref="AN23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,19 +1051,19 @@
       <c r="BN2" s="36">
         <v>44913</v>
       </c>
-      <c r="BO2" s="44">
+      <c r="BO2" s="35">
         <v>44914</v>
       </c>
-      <c r="BP2" s="44">
+      <c r="BP2" s="35">
         <v>44915</v>
       </c>
-      <c r="BQ2" s="44">
+      <c r="BQ2" s="35">
         <v>44916</v>
       </c>
-      <c r="BR2" s="44">
+      <c r="BR2" s="35">
         <v>44917</v>
       </c>
-      <c r="BS2" s="44">
+      <c r="BS2" s="35">
         <v>44918</v>
       </c>
       <c r="BT2" s="36">
@@ -1071,19 +1072,19 @@
       <c r="BU2" s="36">
         <v>44920</v>
       </c>
-      <c r="BV2" s="44">
+      <c r="BV2" s="35">
         <v>44921</v>
       </c>
-      <c r="BW2" s="44">
+      <c r="BW2" s="35">
         <v>44922</v>
       </c>
-      <c r="BX2" s="44">
+      <c r="BX2" s="35">
         <v>44923</v>
       </c>
-      <c r="BY2" s="44">
+      <c r="BY2" s="35">
         <v>44924</v>
       </c>
-      <c r="BZ2" s="44">
+      <c r="BZ2" s="35">
         <v>44925</v>
       </c>
       <c r="CA2" s="36">
@@ -1092,19 +1093,19 @@
       <c r="CB2" s="36">
         <v>44927</v>
       </c>
-      <c r="CC2" s="44">
+      <c r="CC2" s="35">
         <v>44928</v>
       </c>
-      <c r="CD2" s="44">
+      <c r="CD2" s="35">
         <v>44929</v>
       </c>
-      <c r="CE2" s="44">
+      <c r="CE2" s="35">
         <v>44930</v>
       </c>
-      <c r="CF2" s="44">
+      <c r="CF2" s="35">
         <v>44931</v>
       </c>
-      <c r="CG2" s="44">
+      <c r="CG2" s="35">
         <v>44932</v>
       </c>
       <c r="CH2" s="36">
@@ -1199,7 +1200,7 @@
       <c r="BZ3" s="6"/>
       <c r="CA3" s="6"/>
       <c r="CB3" s="6"/>
-      <c r="CC3" s="6"/>
+      <c r="CC3" s="37"/>
       <c r="CD3" s="6"/>
       <c r="CE3" s="6"/>
       <c r="CF3" s="6"/>
@@ -1294,7 +1295,7 @@
       <c r="BZ4" s="2"/>
       <c r="CA4" s="2"/>
       <c r="CB4" s="2"/>
-      <c r="CC4" s="2"/>
+      <c r="CC4" s="37"/>
       <c r="CD4" s="2"/>
       <c r="CE4" s="2"/>
       <c r="CF4" s="2"/>
@@ -1389,7 +1390,7 @@
       <c r="BZ5" s="6"/>
       <c r="CA5" s="6"/>
       <c r="CB5" s="6"/>
-      <c r="CC5" s="6"/>
+      <c r="CC5" s="37"/>
       <c r="CD5" s="6"/>
       <c r="CE5" s="6"/>
       <c r="CF5" s="6"/>
@@ -1405,7 +1406,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="2"/>
@@ -1484,7 +1485,7 @@
       <c r="BZ6" s="2"/>
       <c r="CA6" s="2"/>
       <c r="CB6" s="2"/>
-      <c r="CC6" s="2"/>
+      <c r="CC6" s="37"/>
       <c r="CD6" s="2"/>
       <c r="CE6" s="2"/>
       <c r="CF6" s="2"/>
@@ -1579,7 +1580,7 @@
       <c r="BZ7" s="6"/>
       <c r="CA7" s="6"/>
       <c r="CB7" s="6"/>
-      <c r="CC7" s="6"/>
+      <c r="CC7" s="37"/>
       <c r="CD7" s="6"/>
       <c r="CE7" s="6"/>
       <c r="CF7" s="6"/>
@@ -1674,7 +1675,7 @@
       <c r="BZ8" s="2"/>
       <c r="CA8" s="2"/>
       <c r="CB8" s="2"/>
-      <c r="CC8" s="2"/>
+      <c r="CC8" s="37"/>
       <c r="CD8" s="2"/>
       <c r="CE8" s="2"/>
       <c r="CF8" s="2"/>
@@ -1690,7 +1691,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="6"/>
@@ -1769,7 +1770,7 @@
       <c r="BZ9" s="6"/>
       <c r="CA9" s="6"/>
       <c r="CB9" s="6"/>
-      <c r="CC9" s="6"/>
+      <c r="CC9" s="37"/>
       <c r="CD9" s="6"/>
       <c r="CE9" s="6"/>
       <c r="CF9" s="6"/>
@@ -1864,7 +1865,7 @@
       <c r="BZ10" s="2"/>
       <c r="CA10" s="2"/>
       <c r="CB10" s="2"/>
-      <c r="CC10" s="2"/>
+      <c r="CC10" s="37"/>
       <c r="CD10" s="2"/>
       <c r="CE10" s="2"/>
       <c r="CF10" s="2"/>
@@ -1879,7 +1880,9 @@
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="29"/>
+      <c r="C11" s="29" t="s">
+        <v>25</v>
+      </c>
       <c r="D11" s="10"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -1957,7 +1960,7 @@
       <c r="BZ11" s="38"/>
       <c r="CA11" s="38"/>
       <c r="CB11" s="37"/>
-      <c r="CC11" s="6"/>
+      <c r="CC11" s="37"/>
       <c r="CD11" s="6"/>
       <c r="CE11" s="6"/>
       <c r="CF11" s="6"/>
@@ -2051,7 +2054,7 @@
       <c r="BZ12" s="2"/>
       <c r="CA12" s="2"/>
       <c r="CB12" s="2"/>
-      <c r="CC12" s="2"/>
+      <c r="CC12" s="37"/>
       <c r="CD12" s="2"/>
       <c r="CE12" s="2"/>
       <c r="CF12" s="2"/>
@@ -2066,7 +2069,9 @@
       <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="31" t="s">
+        <v>25</v>
+      </c>
       <c r="D13" s="14"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
@@ -2118,36 +2123,36 @@
       <c r="AZ13" s="19"/>
       <c r="BA13" s="19"/>
       <c r="BB13" s="19"/>
-      <c r="BC13" s="45"/>
-      <c r="BD13" s="45"/>
-      <c r="BE13" s="45"/>
-      <c r="BF13" s="45"/>
-      <c r="BG13" s="45"/>
-      <c r="BH13" s="45"/>
-      <c r="BI13" s="45"/>
-      <c r="BJ13" s="45"/>
-      <c r="BK13" s="45"/>
-      <c r="BL13" s="45"/>
-      <c r="BM13" s="45"/>
-      <c r="BN13" s="45"/>
-      <c r="BO13" s="45"/>
-      <c r="BP13" s="45"/>
-      <c r="BQ13" s="45"/>
-      <c r="BR13" s="45"/>
-      <c r="BS13" s="45"/>
-      <c r="BT13" s="45"/>
-      <c r="BU13" s="45"/>
-      <c r="BV13" s="45"/>
-      <c r="BW13" s="45"/>
-      <c r="BX13" s="45"/>
-      <c r="BY13" s="45"/>
-      <c r="BZ13" s="45"/>
-      <c r="CA13" s="45"/>
+      <c r="BC13" s="19"/>
+      <c r="BD13" s="19"/>
+      <c r="BE13" s="19"/>
+      <c r="BF13" s="19"/>
+      <c r="BG13" s="19"/>
+      <c r="BH13" s="19"/>
+      <c r="BI13" s="19"/>
+      <c r="BJ13" s="19"/>
+      <c r="BK13" s="19"/>
+      <c r="BL13" s="19"/>
+      <c r="BM13" s="19"/>
+      <c r="BN13" s="19"/>
+      <c r="BO13" s="19"/>
+      <c r="BP13" s="19"/>
+      <c r="BQ13" s="19"/>
+      <c r="BR13" s="19"/>
+      <c r="BS13" s="19"/>
+      <c r="BT13" s="19"/>
+      <c r="BU13" s="19"/>
+      <c r="BV13" s="19"/>
+      <c r="BW13" s="19"/>
+      <c r="BX13" s="19"/>
+      <c r="BY13" s="19"/>
+      <c r="BZ13" s="19"/>
+      <c r="CA13" s="19"/>
       <c r="CB13" s="45"/>
-      <c r="CC13" s="45"/>
-      <c r="CD13" s="45"/>
-      <c r="CE13" s="45"/>
-      <c r="CF13" s="45"/>
+      <c r="CC13" s="44"/>
+      <c r="CD13" s="19"/>
+      <c r="CE13" s="19"/>
+      <c r="CF13" s="19"/>
       <c r="CG13" s="19"/>
       <c r="CH13" s="19"/>
       <c r="CI13" s="15"/>

--- a/Zusätzliches/Diagramme/Gantt Diagramm.xlsx
+++ b/Zusätzliches/Diagramme/Gantt Diagramm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcel\Desktop\Schule\Software\ttth\Zusätzliches\Diagramme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D519FEE5-4AD0-42B3-A807-FDEAF52B8D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80B25E6-95D5-48C7-B51E-1EB3AAFF3270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F50B8E01-466F-450A-9E3D-73D80AFD844B}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>Pflichtenheft</t>
   </si>
   <si>
-    <t>Anforderunganalyse</t>
-  </si>
-  <si>
     <t xml:space="preserve">2. </t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>Testphase</t>
   </si>
   <si>
-    <t>Implementierung</t>
-  </si>
-  <si>
     <t>1.1.</t>
   </si>
   <si>
@@ -139,6 +133,12 @@
   </si>
   <si>
     <t>Marlene</t>
+  </si>
+  <si>
+    <t>Anforderungen</t>
+  </si>
+  <si>
+    <t>Inbetriebnahme</t>
   </si>
 </sst>
 </file>
@@ -840,7 +840,7 @@
   <dimension ref="A1:CI13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AN23" sqref="AN23"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,7 +1120,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="10"/>
@@ -1210,13 +1210,13 @@
     </row>
     <row r="4" spans="1:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="2"/>
@@ -1305,10 +1305,10 @@
     </row>
     <row r="5" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>7</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="10"/>
@@ -1370,7 +1370,7 @@
       <c r="BH5" s="6"/>
       <c r="BI5" s="6"/>
       <c r="BJ5" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BK5" s="6"/>
       <c r="BL5" s="6"/>
@@ -1400,13 +1400,13 @@
     </row>
     <row r="6" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="2"/>
@@ -1495,13 +1495,13 @@
     </row>
     <row r="7" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="6"/>
@@ -1590,13 +1590,13 @@
     </row>
     <row r="8" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="2"/>
@@ -1685,13 +1685,13 @@
     </row>
     <row r="9" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="6"/>
@@ -1780,13 +1780,13 @@
     </row>
     <row r="10" spans="1:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>26</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="2"/>
@@ -1875,13 +1875,13 @@
     </row>
     <row r="11" spans="1:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
       <c r="C11" s="29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="6"/>
@@ -1970,13 +1970,13 @@
     </row>
     <row r="12" spans="1:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="2"/>
@@ -2064,13 +2064,13 @@
     </row>
     <row r="13" spans="1:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="19"/>
@@ -2178,17 +2178,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A1" s="39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A2" s="40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A3" s="41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Zusätzliches/Diagramme/Gantt Diagramm.xlsx
+++ b/Zusätzliches/Diagramme/Gantt Diagramm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcel\Desktop\Schule\Software\ttth\Zusätzliches\Diagramme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80B25E6-95D5-48C7-B51E-1EB3AAFF3270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A71BC1-FB94-4FD8-9D2B-43F84F6DF5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F50B8E01-466F-450A-9E3D-73D80AFD844B}"/>
+    <workbookView xWindow="750" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{F50B8E01-466F-450A-9E3D-73D80AFD844B}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt-Dagramm" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -513,7 +513,6 @@
       <alignment vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -839,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07C4ED3-0F61-4723-B627-24D96E92AA05}">
   <dimension ref="A1:CI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="CA16" sqref="CA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,7 +1110,7 @@
       <c r="CH2" s="36">
         <v>44933</v>
       </c>
-      <c r="CI2" s="43">
+      <c r="CI2" s="42">
         <v>44934</v>
       </c>
     </row>
@@ -1460,7 +1459,7 @@
       <c r="BA6" s="2"/>
       <c r="BB6" s="2"/>
       <c r="BC6" s="2"/>
-      <c r="BD6" s="42"/>
+      <c r="BD6" s="41"/>
       <c r="BE6" s="2"/>
       <c r="BF6" s="2"/>
       <c r="BG6" s="2"/>
@@ -1926,40 +1925,40 @@
       <c r="AR11" s="6"/>
       <c r="AS11" s="6"/>
       <c r="AT11" s="6"/>
-      <c r="AU11" s="38"/>
-      <c r="AV11" s="38"/>
-      <c r="AW11" s="38"/>
-      <c r="AX11" s="38"/>
-      <c r="AY11" s="38"/>
-      <c r="AZ11" s="38"/>
-      <c r="BA11" s="38"/>
-      <c r="BB11" s="38"/>
-      <c r="BC11" s="38"/>
-      <c r="BD11" s="38"/>
-      <c r="BE11" s="38"/>
-      <c r="BF11" s="38"/>
-      <c r="BG11" s="38"/>
-      <c r="BH11" s="38"/>
-      <c r="BI11" s="38"/>
-      <c r="BJ11" s="38"/>
-      <c r="BK11" s="38"/>
-      <c r="BL11" s="38"/>
-      <c r="BM11" s="38"/>
-      <c r="BN11" s="38"/>
-      <c r="BO11" s="38"/>
-      <c r="BP11" s="38"/>
-      <c r="BQ11" s="38"/>
-      <c r="BR11" s="38"/>
-      <c r="BS11" s="38"/>
-      <c r="BT11" s="38"/>
-      <c r="BU11" s="38"/>
-      <c r="BV11" s="38"/>
-      <c r="BW11" s="38"/>
-      <c r="BX11" s="38"/>
-      <c r="BY11" s="38"/>
-      <c r="BZ11" s="38"/>
-      <c r="CA11" s="38"/>
-      <c r="CB11" s="37"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="1"/>
+      <c r="BD11" s="1"/>
+      <c r="BE11" s="1"/>
+      <c r="BF11" s="1"/>
+      <c r="BG11" s="1"/>
+      <c r="BH11" s="1"/>
+      <c r="BI11" s="1"/>
+      <c r="BJ11" s="1"/>
+      <c r="BK11" s="1"/>
+      <c r="BL11" s="1"/>
+      <c r="BM11" s="1"/>
+      <c r="BN11" s="1"/>
+      <c r="BO11" s="1"/>
+      <c r="BP11" s="1"/>
+      <c r="BQ11" s="1"/>
+      <c r="BR11" s="1"/>
+      <c r="BS11" s="1"/>
+      <c r="BT11" s="1"/>
+      <c r="BU11" s="1"/>
+      <c r="BV11" s="1"/>
+      <c r="BW11" s="1"/>
+      <c r="BX11" s="37"/>
+      <c r="BY11" s="6"/>
+      <c r="BZ11" s="6"/>
+      <c r="CA11" s="6"/>
+      <c r="CB11" s="6"/>
       <c r="CC11" s="37"/>
       <c r="CD11" s="6"/>
       <c r="CE11" s="6"/>
@@ -2049,11 +2048,11 @@
       <c r="BU12" s="2"/>
       <c r="BV12" s="2"/>
       <c r="BW12" s="2"/>
-      <c r="BX12" s="2"/>
-      <c r="BY12" s="2"/>
-      <c r="BZ12" s="2"/>
-      <c r="CA12" s="2"/>
-      <c r="CB12" s="2"/>
+      <c r="BX12" s="1"/>
+      <c r="BY12" s="1"/>
+      <c r="BZ12" s="1"/>
+      <c r="CA12" s="1"/>
+      <c r="CB12" s="37"/>
       <c r="CC12" s="37"/>
       <c r="CD12" s="2"/>
       <c r="CE12" s="2"/>
@@ -2148,8 +2147,8 @@
       <c r="BY13" s="19"/>
       <c r="BZ13" s="19"/>
       <c r="CA13" s="19"/>
-      <c r="CB13" s="45"/>
-      <c r="CC13" s="44"/>
+      <c r="CB13" s="44"/>
+      <c r="CC13" s="43"/>
       <c r="CD13" s="19"/>
       <c r="CE13" s="19"/>
       <c r="CF13" s="19"/>
@@ -2177,17 +2176,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="92.25" x14ac:dyDescent="1.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="92.25" x14ac:dyDescent="1.35">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="92.25" x14ac:dyDescent="1.35">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="40" t="s">
         <v>29</v>
       </c>
     </row>
